--- a/content/tables/contributions.xlsx
+++ b/content/tables/contributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Desktop/manuscript/content/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE1615-E111-954E-B457-B0D6E87D29C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B369C4-325A-F146-A072-1280D4111D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22320" yWindow="6920" windowWidth="27640" windowHeight="16940" xr2:uid="{F440E670-89F7-0248-A1D3-8D540E1BA163}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Conceptualization</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>T. Cameron Waller</t>
-  </si>
-  <si>
-    <t>Alex J. Bott</t>
   </si>
   <si>
     <t>Yeyun Ouyang</t>
@@ -485,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAEB958-C9DC-EB48-8FE8-1EE084436A75}">
-  <dimension ref="D5:O19"/>
+  <dimension ref="D5:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="0.6640625" customWidth="1"/>
-    <col min="6" max="15" width="2.6640625" customWidth="1"/>
+    <col min="6" max="14" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
@@ -526,11 +523,8 @@
       <c r="N5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,11 +536,10 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,11 +551,10 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,9 +568,8 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
@@ -587,14 +578,13 @@
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,13 +594,12 @@
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,9 +613,8 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,9 +628,8 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,13 +639,12 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,12 +655,11 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -685,12 +670,11 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
@@ -701,12 +685,11 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
@@ -720,9 +703,8 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
@@ -736,9 +718,8 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,11 +729,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
